--- a/biology/Botanique/London_Journal_of_Botany/London_Journal_of_Botany.xlsx
+++ b/biology/Botanique/London_Journal_of_Botany/London_Journal_of_Botany.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le London Journal of Botany (abrév. London J. Bot.)[1] est une revue scientifique illustrée  de descriptions botaniques qui a été éditée à Londres par William Jackson Hooker. Sept numéros ont été publiés dans les années 1842-1848. Elle fut précédée par Journal of botany (J. Bot. (Hooker) et remplacée par Hooker's Journal of Botany and Kew Garden Miscellany.
-Titre complet : The London journal of botany : containing figures and descriptions of such plants as recommend themselves by their novelty, rarity, history, or uses : together with botanical notices and information and and occasional portraits and memoirs of eminent botanists[2] (Le Journal de botanique de Londres : contenant des illustrations et descriptions de plantes qui se recommandent d'elles-mêmes  par leur nouveauté, leur rareté, leur histoire ou leurs utilisations : ainsi que des notices et informations botaniques, et des portraits et mémoires occasionnels de botanistes éminents).
+Le London Journal of Botany (abrév. London J. Bot.) est une revue scientifique illustrée  de descriptions botaniques qui a été éditée à Londres par William Jackson Hooker. Sept numéros ont été publiés dans les années 1842-1848. Elle fut précédée par Journal of botany (J. Bot. (Hooker) et remplacée par Hooker's Journal of Botany and Kew Garden Miscellany.
+Titre complet : The London journal of botany : containing figures and descriptions of such plants as recommend themselves by their novelty, rarity, history, or uses : together with botanical notices and information and and occasional portraits and memoirs of eminent botanists (Le Journal de botanique de Londres : contenant des illustrations et descriptions de plantes qui se recommandent d'elles-mêmes  par leur nouveauté, leur rareté, leur histoire ou leurs utilisations : ainsi que des notices et informations botaniques, et des portraits et mémoires occasionnels de botanistes éminents).
 </t>
         </is>
       </c>
